--- a/biology/Zoologie/Cryptasterina/Cryptasterina.xlsx
+++ b/biology/Zoologie/Cryptasterina/Cryptasterina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptasterina est un genre d'étoiles de mer de la famille des Asterinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cryptasterina a été créé en 2003 par Alan J. Dartnall (d), Maria Byrne (d), John Collins et Michael W. Hart (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cryptasterina a été créé en 2003 par Alan J. Dartnall (d), Maria Byrne (d), John Collins et Michael W. Hart (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (16 juillet 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (16 juillet 2021) :
 Cryptasterina hystera Dartnall &amp; Byrne, 2003 in Dartnall, Byrne, Collins &amp; Hart, 2003 -- Australie
 Cryptasterina pacifica (Hayashi, 1977) -- Pacifique (rare)
 Cryptasterina pentagona (Muller &amp; Troschel, 1842) -- Indo-Pacifique
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Alan J. Dartnall, Maria Byrne, John Collins et Michael W. Hart, « A new viviparous species of asterinid (Echinodermata, Asteroidea,Asterinidae) and a new genus to accommodate the species of pantropical exiguoid sea stars », Zootaxa, Magnolia Press (d), vol. 359, no 1,‎ 23 novembre 2003, p. 1–14 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.359.1.1)</t>
         </is>
@@ -606,7 +624,9 @@
           <t>Référence taxonomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
